--- a/BackEnd/download/example.xlsx
+++ b/BackEnd/download/example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,24 +470,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15455</v>
+        <v>3648</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:02</t>
+          <t>2022-06-06 20:06:57</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53.376</v>
+        <v>50.614</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.262</v>
+        <v>13.83</v>
       </c>
       <c r="F2" t="n">
-        <v>87.87</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>13.36</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="3">
@@ -495,24 +495,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19905</v>
+        <v>18408</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:46</t>
+          <t>2022-06-06 20:08:14</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53.37</v>
+        <v>50.02</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.314</v>
+        <v>14.436</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>50.86</v>
       </c>
       <c r="G3" t="n">
-        <v>17.52</v>
+        <v>-145.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,24 +520,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21163</v>
+        <v>10298</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:28</t>
+          <t>2022-06-06 20:06:24</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53.337723</v>
+        <v>49.716</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.537639</v>
+        <v>17.806</v>
       </c>
       <c r="F4" t="n">
-        <v>34.29</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>14.7</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="5">
@@ -545,24 +545,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21637</v>
+        <v>10373</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:51</t>
+          <t>2022-06-06 20:06:19</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53.352</v>
+        <v>49.768</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.356</v>
+        <v>18.302</v>
       </c>
       <c r="F5" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>14.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -570,24 +570,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23627</v>
+        <v>12615</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:29</t>
+          <t>2022-06-06 20:06:25</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53.302</v>
+        <v>49.8052709</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.362</v>
+        <v>14.2800411</v>
       </c>
       <c r="F6" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>17.8</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="7">
@@ -595,24 +595,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24092</v>
+        <v>16716</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:57</t>
+          <t>2022-06-06 20:06:03</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>53.37</v>
+        <v>49.938035</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.588</v>
+        <v>13.3901699</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>7.28</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="8">
@@ -620,24 +620,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24444</v>
+        <v>21711</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:26</t>
+          <t>2022-06-06 20:07:30</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53.216</v>
+        <v>49.708</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.664</v>
+        <v>18.568</v>
       </c>
       <c r="F8" t="n">
-        <v>92.3</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>7.68</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="9">
@@ -645,24 +645,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24910</v>
+        <v>49203</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:30</t>
+          <t>2022-06-06 20:06:53</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>53.248</v>
+        <v>50.08894587597</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.134</v>
+        <v>14.37757537222</v>
       </c>
       <c r="F9" t="n">
-        <v>76.95</v>
+        <v>47.23</v>
       </c>
       <c r="G9" t="n">
-        <v>15.3</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="10">
@@ -670,24 +670,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>54166</v>
+        <v>28495</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:28</t>
+          <t>2022-06-06 20:05:37</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53.172</v>
+        <v>49.916</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.552</v>
+        <v>14.536</v>
       </c>
       <c r="F10" t="n">
-        <v>34.64</v>
+        <v>51.27</v>
       </c>
       <c r="G10" t="n">
-        <v>19.2</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="11">
@@ -695,24 +695,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28564</v>
+        <v>28727</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:38</t>
+          <t>2022-06-06 20:08:31</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53.346</v>
+        <v>50.068</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.554</v>
+        <v>14.452</v>
       </c>
       <c r="F11" t="n">
-        <v>30.83</v>
+        <v>43.68</v>
       </c>
       <c r="G11" t="n">
-        <v>22.74</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="12">
@@ -720,24 +720,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27458</v>
+        <v>32866</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:29</t>
+          <t>2022-06-06 20:06:04</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53.236</v>
+        <v>50.16</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.622</v>
+        <v>14.768</v>
       </c>
       <c r="F12" t="n">
-        <v>99.90000000000001</v>
+        <v>58.36</v>
       </c>
       <c r="G12" t="n">
-        <v>15.4</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="13">
@@ -745,24 +745,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27405</v>
+        <v>33066</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022-06-06 20:05:07</t>
+          <t>2022-06-06 20:06:49</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>53.316</v>
+        <v>49.296</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.294</v>
+        <v>14.47</v>
       </c>
       <c r="F13" t="n">
-        <v>51.4</v>
+        <v>32.39</v>
       </c>
       <c r="G13" t="n">
-        <v>19.4</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="14">
@@ -770,24 +770,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27814</v>
+        <v>33067</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:32</t>
+          <t>2022-06-06 20:07:47</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53.452</v>
+        <v>49.296</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.18</v>
+        <v>14.47</v>
       </c>
       <c r="F14" t="n">
-        <v>93.75</v>
+        <v>34.86</v>
       </c>
       <c r="G14" t="n">
-        <v>17.8</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="15">
@@ -795,24 +795,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28218</v>
+        <v>33364</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:51</t>
+          <t>2022-06-06 20:06:58</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53.342</v>
+        <v>50.766</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.216</v>
+        <v>15.338</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>74.81</v>
       </c>
       <c r="G15" t="n">
-        <v>14.76</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="16">
@@ -820,24 +820,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28216</v>
+        <v>36811</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022-06-06 20:05:34</t>
+          <t>2022-06-06 20:05:29</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53.362</v>
+        <v>49.732</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.288</v>
+        <v>13.402</v>
       </c>
       <c r="F16" t="n">
-        <v>89.45</v>
+        <v>57.5</v>
       </c>
       <c r="G16" t="n">
-        <v>13.96</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="17">
@@ -845,24 +845,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28208</v>
+        <v>39827</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:50</t>
+          <t>2022-06-06 20:07:45</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53.37155643155</v>
+        <v>49.652</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.25910752919</v>
+        <v>18.77</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>13.35</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="18">
@@ -870,24 +870,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28252</v>
+        <v>41685</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:50</t>
+          <t>2022-06-06 20:04:55</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53.336</v>
+        <v>50.0776376</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.298</v>
+        <v>14.4448725</v>
       </c>
       <c r="F18" t="n">
-        <v>53.3</v>
+        <v>39.9</v>
       </c>
       <c r="G18" t="n">
-        <v>23.28</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="19">
@@ -895,24 +895,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31319</v>
+        <v>43392</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:39</t>
+          <t>2022-06-06 20:07:40</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53.678</v>
+        <v>50.078</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.254</v>
+        <v>13.704</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>54.56</v>
       </c>
       <c r="G19" t="n">
-        <v>24.02</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="20">
@@ -920,24 +920,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28261</v>
+        <v>43123</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:43</t>
+          <t>2022-06-06 20:07:36</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>53.304</v>
+        <v>50.0930755</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.284</v>
+        <v>14.5083719</v>
       </c>
       <c r="F20" t="n">
-        <v>81.27</v>
+        <v>54.1</v>
       </c>
       <c r="G20" t="n">
-        <v>12.11</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="21">
@@ -945,24 +945,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29005</v>
+        <v>45711</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022-06-06 20:05:55</t>
+          <t>2022-06-06 20:07:48</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53.34067</v>
+        <v>50.108</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.537797</v>
+        <v>13.712</v>
       </c>
       <c r="F21" t="n">
-        <v>71.3</v>
+        <v>57.18</v>
       </c>
       <c r="G21" t="n">
-        <v>15.6</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="22">
@@ -970,24 +970,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30394</v>
+        <v>46714</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022-06-06 20:04:46</t>
+          <t>2022-06-06 20:08:26</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53.26531175352</v>
+        <v>50.118</v>
       </c>
       <c r="E22" t="n">
-        <v>-9.07983648816</v>
+        <v>14.462</v>
       </c>
       <c r="F22" t="n">
-        <v>90.70999999999999</v>
+        <v>51.53</v>
       </c>
       <c r="G22" t="n">
-        <v>14.18</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="23">
@@ -995,24 +995,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33225</v>
+        <v>48381</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:40</t>
+          <t>2022-06-06 20:07:43</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53.296698</v>
+        <v>50.07055159858</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.164768</v>
+        <v>14.43329125643</v>
       </c>
       <c r="F23" t="n">
-        <v>96.2</v>
+        <v>48.8</v>
       </c>
       <c r="G23" t="n">
-        <v>14.6</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="24">
@@ -1020,24 +1020,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>33753</v>
+        <v>49264</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:34</t>
+          <t>2022-06-06 20:06:20</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52.912</v>
+        <v>50.18095868383</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.342</v>
+        <v>14.65001374483</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>52.61</v>
       </c>
       <c r="G24" t="n">
-        <v>13.82</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="25">
@@ -1045,24 +1045,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41826</v>
+        <v>50072</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022-06-06 20:05:06</t>
+          <t>2022-06-06 20:06:58</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53.246</v>
+        <v>50.678</v>
       </c>
       <c r="E25" t="n">
-        <v>-6.67</v>
+        <v>13.938</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>60.72</v>
       </c>
       <c r="G25" t="n">
-        <v>13.86</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="26">
@@ -1070,24 +1070,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>43816</v>
+        <v>52745</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:32</t>
+          <t>2022-06-06 20:08:18</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52.054</v>
+        <v>49.794</v>
       </c>
       <c r="E26" t="n">
-        <v>-9.494</v>
+        <v>18.258</v>
       </c>
       <c r="F26" t="n">
-        <v>58.06</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>19.75</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="27">
@@ -1095,24 +1095,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44266</v>
+        <v>51875</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:53</t>
+          <t>2022-06-06 20:06:54</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52.84829760863</v>
+        <v>49.994</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.33827999535</v>
+        <v>14.052</v>
       </c>
       <c r="F27" t="n">
-        <v>65.28</v>
+        <v>63.91</v>
       </c>
       <c r="G27" t="n">
-        <v>16.82</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="28">
@@ -1120,24 +1120,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44465</v>
+        <v>52028</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2022-06-06 20:05:53</t>
+          <t>2022-06-06 20:07:40</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>53.206</v>
+        <v>50.658</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.106</v>
+        <v>14.004</v>
       </c>
       <c r="F28" t="n">
-        <v>52.12</v>
+        <v>55.12</v>
       </c>
       <c r="G28" t="n">
-        <v>23.12</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="29">
@@ -1145,24 +1145,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48695</v>
+        <v>52027</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:49</t>
+          <t>2022-06-06 20:08:30</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53.48</v>
+        <v>50.658</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.3</v>
+        <v>14.004</v>
       </c>
       <c r="F29" t="n">
-        <v>34.5</v>
+        <v>39.07</v>
       </c>
       <c r="G29" t="n">
-        <v>24</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="30">
@@ -1170,24 +1170,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12600</v>
+        <v>52067</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:06</t>
+          <t>2022-06-06 20:08:20</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53.326</v>
+        <v>50.71</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.298</v>
+        <v>14.492</v>
       </c>
       <c r="F30" t="n">
-        <v>55.76</v>
+        <v>73.78</v>
       </c>
       <c r="G30" t="n">
-        <v>17.86</v>
+        <v>18.77</v>
       </c>
     </row>
     <row r="31">
@@ -1195,24 +1195,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>47351</v>
+        <v>52068</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022-06-06 20:08:18</t>
+          <t>2022-06-06 20:08:26</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53.326</v>
+        <v>50.71</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.298</v>
+        <v>14.492</v>
       </c>
       <c r="F31" t="n">
-        <v>59.16</v>
+        <v>44.7</v>
       </c>
       <c r="G31" t="n">
-        <v>14.92</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="32">
@@ -1220,24 +1220,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50672</v>
+        <v>52251</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:38</t>
+          <t>2022-06-06 20:07:41</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53.362</v>
+        <v>49.2000559033</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.24</v>
+        <v>16.63993871209</v>
       </c>
       <c r="F32" t="n">
-        <v>53.09</v>
+        <v>80.39</v>
       </c>
       <c r="G32" t="n">
-        <v>16.1</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="33">
@@ -1245,24 +1245,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50674</v>
+        <v>52317</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:55</t>
+          <t>2022-06-06 20:06:26</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>53.29</v>
+        <v>50.6613134</v>
       </c>
       <c r="E33" t="n">
-        <v>-9.08</v>
+        <v>14.03535457078</v>
       </c>
       <c r="F33" t="n">
-        <v>90.06</v>
+        <v>40.73</v>
       </c>
       <c r="G33" t="n">
-        <v>15.35</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="34">
@@ -1270,24 +1270,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50692</v>
+        <v>52470</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2022-06-06 20:05:58</t>
+          <t>2022-06-06 20:07:31</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>53.314</v>
+        <v>49.49413010451</v>
       </c>
       <c r="E34" t="n">
-        <v>-6.3</v>
+        <v>14.67903998493</v>
       </c>
       <c r="F34" t="n">
-        <v>60.25</v>
+        <v>75.17</v>
       </c>
       <c r="G34" t="n">
-        <v>15.79</v>
+        <v>17.38</v>
       </c>
     </row>
     <row r="35">
@@ -1295,24 +1295,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>50680</v>
+        <v>53354</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022-06-06 20:04:59</t>
+          <t>2022-06-06 20:08:32</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>52.626</v>
+        <v>50.07765353788</v>
       </c>
       <c r="E35" t="n">
-        <v>-8.667999999999999</v>
+        <v>14.44490468482</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>39.48</v>
       </c>
       <c r="G35" t="n">
-        <v>15.21</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="36">
@@ -1320,24 +1320,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>50675</v>
+        <v>53400</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:43</t>
+          <t>2022-06-06 20:06:55</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>53.53</v>
+        <v>50.364</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.312</v>
+        <v>14.874</v>
       </c>
       <c r="F36" t="n">
-        <v>51.12</v>
+        <v>55.74</v>
       </c>
       <c r="G36" t="n">
-        <v>16.37</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="37">
@@ -1345,24 +1345,24 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50681</v>
+        <v>53498</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:41</t>
+          <t>2022-06-06 20:05:56</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>53.334</v>
+        <v>50.422</v>
       </c>
       <c r="E37" t="n">
-        <v>-6.536</v>
+        <v>14.912</v>
       </c>
       <c r="F37" t="n">
-        <v>46.05</v>
+        <v>57.32</v>
       </c>
       <c r="G37" t="n">
-        <v>22.16</v>
+        <v>20.19</v>
       </c>
     </row>
     <row r="38">
@@ -1370,24 +1370,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50685</v>
+        <v>53593</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:36</t>
+          <t>2022-06-06 20:07:47</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>53.346</v>
+        <v>50.0307023</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.296</v>
+        <v>14.5112617</v>
       </c>
       <c r="F38" t="n">
-        <v>61.59</v>
+        <v>50.97</v>
       </c>
       <c r="G38" t="n">
-        <v>13.89</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="39">
@@ -1395,24 +1395,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>50726</v>
+        <v>54536</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:36</t>
+          <t>2022-06-06 20:06:58</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>54.912</v>
+        <v>50.09</v>
       </c>
       <c r="E39" t="n">
-        <v>-8.391999999999999</v>
+        <v>14.42</v>
       </c>
       <c r="F39" t="n">
-        <v>47.72</v>
+        <v>37.51</v>
       </c>
       <c r="G39" t="n">
-        <v>29.24</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="40">
@@ -1420,24 +1420,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>51124</v>
+        <v>54981</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:47</t>
+          <t>2022-06-06 20:04:58</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>53.394</v>
+        <v>50.206</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.294</v>
+        <v>15.978</v>
       </c>
       <c r="F40" t="n">
-        <v>12.74</v>
+        <v>77.13</v>
       </c>
       <c r="G40" t="n">
-        <v>22.37</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="41">
@@ -1445,24 +1445,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>58473</v>
+        <v>56347</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2022-06-06 20:05:53</t>
+          <t>2022-06-06 20:07:53</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>53.337889</v>
+        <v>49.69683075008</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.249439</v>
+        <v>13.25687491897</v>
       </c>
       <c r="F41" t="n">
-        <v>50.85</v>
+        <v>64.55</v>
       </c>
       <c r="G41" t="n">
-        <v>21.12</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="42">
@@ -1470,24 +1470,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>59997</v>
+        <v>56586</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2022-06-06 20:06:30</t>
+          <t>2022-06-06 20:03:43</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>53.3</v>
+        <v>50.0125333</v>
       </c>
       <c r="E42" t="n">
-        <v>-6.26</v>
+        <v>14.6718937</v>
       </c>
       <c r="F42" t="n">
-        <v>74.91</v>
+        <v>72.84</v>
       </c>
       <c r="G42" t="n">
-        <v>13.3</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="43">
@@ -1495,24 +1495,424 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>61184</v>
+        <v>57194</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022-06-06 20:07:31</t>
+          <t>2022-06-06 20:08:22</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>54.356</v>
+        <v>50.156</v>
       </c>
       <c r="E43" t="n">
-        <v>-8.550000000000001</v>
+        <v>14.518</v>
       </c>
       <c r="F43" t="n">
-        <v>27</v>
+        <v>43.28</v>
       </c>
       <c r="G43" t="n">
-        <v>26.12</v>
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57506</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:05:36</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>50.092</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15.804</v>
+      </c>
+      <c r="F44" t="n">
+        <v>86.59</v>
+      </c>
+      <c r="G44" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57340</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:06:29</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>50.13650119003</v>
+      </c>
+      <c r="E45" t="n">
+        <v>15.09839594357</v>
+      </c>
+      <c r="F45" t="n">
+        <v>52.45</v>
+      </c>
+      <c r="G45" t="n">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>57470</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:06:51</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>50.034</v>
+      </c>
+      <c r="E46" t="n">
+        <v>15.256</v>
+      </c>
+      <c r="F46" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="G46" t="n">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>57610</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:07:52</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>49.764245</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18.34908</v>
+      </c>
+      <c r="F47" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="G47" t="n">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>58336</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:04:53</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>49.5946069</v>
+      </c>
+      <c r="E48" t="n">
+        <v>17.2215781</v>
+      </c>
+      <c r="F48" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="G48" t="n">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>57609</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:07:39</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>49.7686013</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18.3160013</v>
+      </c>
+      <c r="F49" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>57780</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:06:13</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>50.0581656</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.4250174</v>
+      </c>
+      <c r="F50" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="G50" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>58974</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:06:58</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>50.07551333732</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14.40526485509</v>
+      </c>
+      <c r="F51" t="n">
+        <v>45.11</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>59397</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:03:59</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>50.952</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14.502</v>
+      </c>
+      <c r="F52" t="n">
+        <v>94.89</v>
+      </c>
+      <c r="G52" t="n">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>59493</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:07:02</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>49.5979439</v>
+      </c>
+      <c r="E53" t="n">
+        <v>18.0027884</v>
+      </c>
+      <c r="F53" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="G53" t="n">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>59500</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:04:38</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>49.588</v>
+      </c>
+      <c r="E54" t="n">
+        <v>18.018</v>
+      </c>
+      <c r="F54" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60657</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:07:32</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>50.122</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.468</v>
+      </c>
+      <c r="F55" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>59498</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:05:31</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>49.5939514</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18.0188947</v>
+      </c>
+      <c r="F56" t="n">
+        <v>79.69</v>
+      </c>
+      <c r="G56" t="n">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>59762</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:08:25</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>49.998</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14.858</v>
+      </c>
+      <c r="F57" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="G57" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>60387</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:07:02</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>49.994</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="F58" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="G58" t="n">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>61297</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2022-06-06 20:07:36</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>50.476</v>
+      </c>
+      <c r="E59" t="n">
+        <v>15.588</v>
+      </c>
+      <c r="F59" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>17.92</v>
       </c>
     </row>
   </sheetData>
